--- a/dac.2024.digilent/model/Result.xlsx
+++ b/dac.2024.digilent/model/Result.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitYang\dacDT\dac.2024.digilent\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C8D074-0F9F-4A89-BDD9-D462BF2AEDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAC7E50-3193-4A41-BFE7-1F4B32F965D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16785" yWindow="7935" windowWidth="19890" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48225" yWindow="6795" windowWidth="22410" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Origin" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,59 +93,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>6.649941648566178</t>
-  </si>
-  <si>
-    <t>0.005017411121275927</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>6.649999999999991</t>
-  </si>
-  <si>
-    <t>9.322192394748957E-15</t>
-  </si>
-  <si>
-    <t>6.650000371883196</t>
-  </si>
-  <si>
-    <t>0.0050534151821004444</t>
-  </si>
-  <si>
-    <t>6.650025294259243</t>
-  </si>
-  <si>
-    <t>0.005035095333662415</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>6.651639245195887</t>
-  </si>
-  <si>
-    <t>0.15806155495311436</t>
-  </si>
-  <si>
-    <t>6.650508619705188</t>
-  </si>
-  <si>
-    <t>0.11167316569114503</t>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,20 +420,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" customWidth="true" width="20.25" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="23.375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="18.875" collapsed="true"/>
+    <col min="8" max="8" width="20.25" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -506,266 +461,8 @@
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +481,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" bestFit="true" customWidth="true" width="18.75" collapsed="true"/>
+    <col min="1" max="4" width="18.75" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
